--- a/CRM/개발문서/170522_프로젝트수정요구사항_ver0.4.xlsx
+++ b/CRM/개발문서/170522_프로젝트수정요구사항_ver0.4.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23256" windowHeight="9852"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의 ver_0.4" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
   <si>
     <t>요구사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,15 +437,31 @@
     <t>일별 출력기능 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 정렬 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 출력 시 최신 데이터가 상단에 노출되도록 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,13 +478,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -812,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,9 +1007,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -994,12 +1047,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1041,7 +1097,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1073,9 +1129,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1107,6 +1164,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1282,32 +1340,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" customWidth="1"/>
-    <col min="2" max="2" width="7.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="64" customWidth="1"/>
-    <col min="4" max="4" width="60.8984375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="49.09765625" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" customWidth="1"/>
-    <col min="8" max="8" width="12.3984375" customWidth="1"/>
-    <col min="9" max="9" width="12.19921875" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="60.875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="49.125" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="50" t="s">
         <v>0</v>
@@ -1335,7 +1393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1">
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
@@ -1363,7 +1421,7 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="52"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -1387,7 +1445,7 @@
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
       <c r="B4" s="3" t="s">
         <v>20</v>
@@ -1411,7 +1469,7 @@
       </c>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1">
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="52"/>
       <c r="B5" s="3" t="s">
         <v>21</v>
@@ -1435,7 +1493,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1">
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52"/>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -1459,7 +1517,7 @@
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1">
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="52"/>
       <c r="B7" s="3" t="s">
         <v>23</v>
@@ -1483,7 +1541,7 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1">
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52"/>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -1507,7 +1565,7 @@
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1">
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52"/>
       <c r="B9" s="5">
         <v>7</v>
@@ -1531,7 +1589,7 @@
       </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="53"/>
       <c r="B10" s="22">
         <v>8</v>
@@ -1555,7 +1613,7 @@
       </c>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1">
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>11</v>
       </c>
@@ -1583,7 +1641,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1">
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="52"/>
       <c r="B12" s="3">
         <v>2</v>
@@ -1609,7 +1667,7 @@
       </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1">
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="52"/>
       <c r="B13" s="3">
         <v>3</v>
@@ -1631,7 +1689,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1">
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="52"/>
       <c r="B14" s="3">
         <v>4</v>
@@ -1653,7 +1711,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1">
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="52"/>
       <c r="B15" s="3">
         <v>5</v>
@@ -1679,7 +1737,7 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1">
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="52"/>
       <c r="B16" s="3">
         <v>6</v>
@@ -1705,7 +1763,7 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="52"/>
       <c r="B17" s="3">
         <v>7</v>
@@ -1731,7 +1789,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" ht="14.25" customHeight="1">
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
         <v>25</v>
       </c>
@@ -1759,7 +1817,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="53"/>
       <c r="B19" s="10">
         <v>2</v>
@@ -1785,35 +1843,37 @@
       </c>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1">
+    <row r="20" spans="1:10" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="57">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="48"/>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="58">
         <v>1</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="4">
-        <v>42877</v>
-      </c>
-      <c r="I20" s="15">
+      <c r="H20" s="59">
+        <v>42877</v>
+      </c>
+      <c r="I20" s="60">
         <v>42878</v>
       </c>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1">
+      <c r="J20" s="63">
+        <v>42878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="52"/>
       <c r="B21" s="6">
         <v>2</v>
@@ -1835,7 +1895,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1">
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="52"/>
       <c r="B22" s="6">
         <v>3</v>
@@ -1857,7 +1917,7 @@
       <c r="I22" s="15"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1">
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="52"/>
       <c r="B23" s="3" t="s">
         <v>78</v>
@@ -1883,7 +1943,7 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1">
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="B24" s="3" t="s">
         <v>79</v>
@@ -1909,7 +1969,7 @@
       </c>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1">
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="52"/>
       <c r="B25" s="3" t="s">
         <v>80</v>
@@ -1931,7 +1991,7 @@
       <c r="I25" s="15"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1">
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="52"/>
       <c r="B26" s="6">
         <v>4</v>
@@ -1957,7 +2017,7 @@
       </c>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1">
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="52"/>
       <c r="B27" s="6">
         <v>5</v>
@@ -1983,7 +2043,7 @@
       </c>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1">
+    <row r="28" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="52"/>
       <c r="B28" s="3" t="s">
         <v>23</v>
@@ -2009,10 +2069,10 @@
       </c>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
+    <row r="29" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="52"/>
-      <c r="B29" s="29">
-        <v>6</v>
+      <c r="B29" s="62" t="s">
+        <v>100</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>66</v>
@@ -2024,7 +2084,7 @@
       <c r="F29" s="30">
         <v>5</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H29" s="4">
@@ -2035,65 +2095,69 @@
       </c>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A30" s="51" t="s">
+    <row r="30" spans="1:10" s="61" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="52"/>
+      <c r="B30" s="64">
+        <v>7</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="65"/>
+      <c r="G30" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="59">
+        <v>42877</v>
+      </c>
+      <c r="I30" s="60">
+        <v>42878</v>
+      </c>
+      <c r="J30" s="63">
+        <v>42878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B31" s="24">
         <v>1</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="7" t="s">
+      <c r="D31" s="48"/>
+      <c r="E31" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="14" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="21">
-        <v>42877</v>
-      </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="42">
+      <c r="H31" s="21">
+        <v>42877</v>
+      </c>
+      <c r="I31" s="21"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="52"/>
+      <c r="B32" s="42">
         <v>2</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="14" t="s">
+      <c r="D32" s="48"/>
+      <c r="E32" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="4">
-        <v>42877</v>
-      </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="43"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="6">
-        <v>3</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="2" t="s">
         <v>95</v>
       </c>
@@ -2101,104 +2165,100 @@
         <v>42877</v>
       </c>
       <c r="I32" s="15"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
+      <c r="J32" s="43"/>
+    </row>
+    <row r="33" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="52"/>
-      <c r="B33" s="29">
-        <v>4</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>82</v>
+      <c r="B33" s="6">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D33" s="48"/>
-      <c r="E33" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="30">
-        <v>1</v>
-      </c>
+      <c r="E33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="31">
-        <v>42877</v>
-      </c>
-      <c r="I33" s="28">
+      <c r="H33" s="4">
+        <v>42877</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="52"/>
+      <c r="B34" s="29">
+        <v>4</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="48"/>
+      <c r="E34" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="30">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="31">
+        <v>42877</v>
+      </c>
+      <c r="I34" s="28">
         <v>42880</v>
       </c>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="25" t="s">
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="1:10" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B35" s="26">
         <v>1</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="17" t="s">
+      <c r="D35" s="48"/>
+      <c r="E35" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F35" s="34">
         <v>1</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G35" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="H34" s="36">
-        <v>42877</v>
-      </c>
-      <c r="I34" s="37">
+      <c r="H35" s="36">
+        <v>42877</v>
+      </c>
+      <c r="I35" s="37">
         <v>42881</v>
       </c>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A35" s="51" t="s">
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B36" s="24">
         <v>1</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="7" t="s">
+      <c r="D36" s="48"/>
+      <c r="E36" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F36" s="7">
         <v>2</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="4">
-        <v>42877</v>
-      </c>
-      <c r="I35" s="4">
-        <v>42880</v>
-      </c>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A36" s="52"/>
-      <c r="B36" s="6">
-        <v>2</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="45">
-        <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>91</v>
@@ -2209,22 +2269,22 @@
       <c r="I36" s="4">
         <v>42880</v>
       </c>
-      <c r="J36" s="46"/>
-    </row>
-    <row r="37" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A37" s="53"/>
-      <c r="B37" s="44">
-        <v>3</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>84</v>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="52"/>
+      <c r="B37" s="6">
+        <v>2</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>92</v>
       </c>
       <c r="D37" s="48"/>
-      <c r="E37" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="11">
-        <v>3</v>
+      <c r="E37" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="45">
+        <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>91</v>
@@ -2235,139 +2295,165 @@
       <c r="I37" s="4">
         <v>42880</v>
       </c>
-      <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A38" s="54" t="s">
+      <c r="J37" s="46"/>
+    </row>
+    <row r="38" spans="1:10" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="53"/>
+      <c r="B38" s="44">
+        <v>3</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="11">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="4">
+        <v>42877</v>
+      </c>
+      <c r="I38" s="4">
+        <v>42880</v>
+      </c>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B39" s="24">
         <v>1</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="7" t="s">
+      <c r="D39" s="48"/>
+      <c r="E39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="7">
         <v>2</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H38" s="21">
-        <v>42877</v>
-      </c>
-      <c r="I38" s="21">
+      <c r="H39" s="21">
+        <v>42877</v>
+      </c>
+      <c r="I39" s="21">
         <v>42881</v>
       </c>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A39" s="55"/>
-      <c r="B39" s="6">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="4">
-        <v>42877</v>
-      </c>
-      <c r="I39" s="4">
-        <v>42879</v>
-      </c>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.25" customHeight="1">
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="55"/>
       <c r="B40" s="6">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="48"/>
+      <c r="E40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="4">
+        <v>42877</v>
+      </c>
+      <c r="I40" s="4">
+        <v>42879</v>
+      </c>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="55"/>
+      <c r="B41" s="6">
         <v>3</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C41" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="33" t="s">
+      <c r="D41" s="48"/>
+      <c r="E41" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="4">
-        <v>42877</v>
-      </c>
-      <c r="I40" s="4">
-        <v>42891</v>
-      </c>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A41" s="55"/>
-      <c r="B41" s="29">
-        <v>4</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="4">
         <v>42877</v>
       </c>
       <c r="I41" s="4">
         <v>42891</v>
       </c>
-      <c r="J41" s="32"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A42" s="56"/>
-      <c r="B42" s="10">
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="55"/>
+      <c r="B42" s="29">
+        <v>4</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="48"/>
+      <c r="E42" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="4">
+        <v>42877</v>
+      </c>
+      <c r="I42" s="4">
+        <v>42891</v>
+      </c>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="56"/>
+      <c r="B43" s="10">
         <v>5</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C43" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="38" t="s">
+      <c r="D43" s="49"/>
+      <c r="E43" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12">
-        <v>42877</v>
-      </c>
-      <c r="I42" s="12">
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12">
+        <v>42877</v>
+      </c>
+      <c r="I43" s="12">
         <v>42891</v>
       </c>
-      <c r="J42" s="13"/>
+      <c r="J43" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D2:D42"/>
+    <mergeCell ref="D2:D43"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A29"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A36:A38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2382,12 +2468,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2395,12 +2481,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
